--- a/data/income_statement/2digits/size/11_IS_LARGE.xlsx
+++ b/data/income_statement/2digits/size/11_IS_LARGE.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>11-Manufacture of beverages</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>11-Manufacture of beverages</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,872 +841,987 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>6205411.30846</v>
+        <v>6105973.814859999</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>7519527.01528</v>
+        <v>7414792.38094</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>8663306.28884</v>
+        <v>9002302.24807</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>8948461.331799999</v>
+        <v>9542550.748500001</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>10873852.0479</v>
+        <v>10734406.10676</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>11607757.06083</v>
+        <v>12780880.28833</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>14291389.74009</v>
+        <v>14474705.56609</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>13968738.1227</v>
+        <v>16244781.96538</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>19599514.68876</v>
+        <v>19123643.89929</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>22792672.58461</v>
+        <v>22650570.37695</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>29572857.85938</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>29124731.01913</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>30539557.123</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>5976720.4662</v>
+        <v>5881903.14607</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>7272307.88559</v>
+        <v>7174638.4962</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>8393040.2633</v>
+        <v>8693385.68348</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>8634143.12136</v>
+        <v>9171656.551179999</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>10505227.3819</v>
+        <v>10356279.60252</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>11254197.12648</v>
+        <v>12341567.89822</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>13800452.18773</v>
+        <v>13971154.51034</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>13418293.40988</v>
+        <v>15734991.46643</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>18901280.20107</v>
+        <v>18486504.01129</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>22097641.11524</v>
+        <v>22010148.00571</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>28711146.12133</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>28289870.40233</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>29581312.718</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>178092.29848</v>
+        <v>174810.52223</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>204527.71438</v>
+        <v>198856.33941</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>218669.51223</v>
+        <v>259604.19032</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>254273.64324</v>
+        <v>311796.76077</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>302818.67174</v>
+        <v>317133.31663</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>261576.36337</v>
+        <v>349808.69722</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>416664.62082</v>
+        <v>430392.1648</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>442265.27194</v>
+        <v>408895.82149</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>553483.86708</v>
+        <v>509687.04057</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>568756.81936</v>
+        <v>526519.5260599999</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>675662.42208</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>655197.95266</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>779873.034</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>50598.54378</v>
+        <v>49260.14656</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>42691.41531</v>
+        <v>41297.54533</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>51596.51331</v>
+        <v>49312.37427</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>60044.5672</v>
+        <v>59097.43655</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>65805.99425999999</v>
+        <v>60993.18761</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>91983.57098</v>
+        <v>89503.69289000001</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>74272.93154000001</v>
+        <v>73158.89095</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>108179.44088</v>
+        <v>100894.67746</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>144750.62061</v>
+        <v>127452.84743</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>126274.65001</v>
+        <v>113902.84518</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>186049.31597</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>179662.66414</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>178371.371</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>2133261.63677</v>
+        <v>2124859.22735</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>2946251.93368</v>
+        <v>2932577.64256</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>3535081.12854</v>
+        <v>3845907.2478</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>3485074.04065</v>
+        <v>3987642.01664</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>4963010.602229999</v>
+        <v>4958888.80585</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>4953207.54845</v>
+        <v>5948656.64944</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>6743435.044430001</v>
+        <v>6775870.21762</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>5752922.93561</v>
+        <v>7913021.32593</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>9321827.451889999</v>
+        <v>9258514.00247</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>11655056.10004</v>
+        <v>11617605.56264</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>15469591.59485</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>15424490.68855</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>15744326.988</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>55269.60864</v>
+        <v>53501.48753</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>61780.13847</v>
+        <v>56442.71141</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>64305.01434</v>
+        <v>63834.91254</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>74412.15109</v>
+        <v>73244.57540999999</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>76434.64556999999</v>
+        <v>75301.96691</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>122926.04146</v>
+        <v>121577.83212</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>111303.09376</v>
+        <v>134985.17594</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>171751.20816</v>
+        <v>181586.94736</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>212766.84788</v>
+        <v>203662.19707</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>207165.76697</v>
+        <v>205273.64315</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>1161449.06848</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>1150527.56822</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>998717.2659999999</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
-        <v>77021.12809</v>
+        <v>75184.50181999999</v>
       </c>
       <c r="D11" s="48" t="n">
-        <v>124977.75954</v>
+        <v>122063.83315</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>134181.93838</v>
+        <v>134100.15965</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>186860.60814</v>
+        <v>185724.77176</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>235030.67625</v>
+        <v>233558.5501</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>282200.51604</v>
+        <v>282291.44547</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>374170.62454</v>
+        <v>385112.96415</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>439438.71597</v>
+        <v>436940.7091</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>529460.5194700001</v>
+        <v>527242.57291</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>519670.59018</v>
+        <v>525449.23709</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>1833464.48304</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>1832935.46133</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>1670871.16</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
-        <v>2000970.90004</v>
+        <v>1996173.238</v>
       </c>
       <c r="D12" s="48" t="n">
-        <v>2759494.03567</v>
+        <v>2754071.098</v>
       </c>
       <c r="E12" s="48" t="n">
-        <v>3336594.17582</v>
+        <v>3647972.17561</v>
       </c>
       <c r="F12" s="48" t="n">
-        <v>3223801.28142</v>
+        <v>3728672.66947</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>4651545.28041</v>
+        <v>4650028.288840001</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>4548080.99095</v>
+        <v>5544787.371850001</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>6257961.32613</v>
+        <v>6255772.077529999</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>5141733.01148</v>
+        <v>7294493.66947</v>
       </c>
       <c r="K12" s="48" t="n">
-        <v>8579600.08454</v>
+        <v>8527609.232489999</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>10928219.74289</v>
+        <v>10886882.6824</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>12474678.04333</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>12441027.659</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>13074738.562</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>4072149.67169</v>
+        <v>3981114.58751</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>4573275.0816</v>
+        <v>4482214.73838</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>5128225.160300001</v>
+        <v>5156395.000270001</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>5463387.29115</v>
+        <v>5554908.73186</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>5910841.44567</v>
+        <v>5775517.30091</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>6654549.51238</v>
+        <v>6832223.63889</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>7547954.69566</v>
+        <v>7698835.348470001</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>8215815.18709</v>
+        <v>8331760.63945</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>10277687.23687</v>
+        <v>9865129.896819999</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>11137616.48457</v>
+        <v>11032964.81431</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>14103266.26453</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>13700240.33058</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>14795230.135</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>2978896.00434</v>
+        <v>2894062.59209</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>3340763.61141</v>
+        <v>3261826.27785</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>3815857.70471</v>
+        <v>3832270.13481</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>3977834.45144</v>
+        <v>4046323.43169</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>4441610.43536</v>
+        <v>4325018.716560001</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>5000099.514909999</v>
+        <v>5131588.47007</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>5710459.807779999</v>
+        <v>5796841.73037</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>6217491.769560001</v>
+        <v>6355609.97421</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>7871744.44379</v>
+        <v>7571483.69517</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>8866553.560760001</v>
+        <v>8783345.402709998</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>11057182.06652</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>10726940.24037</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>11802724.819</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
-        <v>2837128.70569</v>
+        <v>2755211.77004</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>3189680.60406</v>
+        <v>3114417.48662</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>3657453.87361</v>
+        <v>3675145.02835</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>3833897.71737</v>
+        <v>3912073.9651</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>4301376.31221</v>
+        <v>4191011.66945</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>4810445.38208</v>
+        <v>4936846.35912</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>5469311.476</v>
+        <v>5539173.29414</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>5872842.60518</v>
+        <v>6016496.76085</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>7420132.242409999</v>
+        <v>7140809.69801</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>8339109.09913</v>
+        <v>8285260.811939999</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>10427556.06356</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>10110316.90283</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>11260704.091</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>129606.94835</v>
+        <v>126986.55354</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>133860.26171</v>
+        <v>131043.11825</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>109489.85238</v>
+        <v>108793.16855</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>108127.1894</v>
+        <v>104048.57698</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>110077.24188</v>
+        <v>103865.13385</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>144701.63746</v>
+        <v>149741.64205</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>199695.03293</v>
+        <v>214050.01328</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>284488.8837</v>
+        <v>277556.83465</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>345144.87949</v>
+        <v>336323.90637</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>443448.95895</v>
+        <v>418602.00254</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>446668.2437</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>439181.75285</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>417030.598</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>130.6461</v>
+        <v>0</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>3191.10178</v>
+        <v>2903.82977</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>9627.632029999999</v>
+        <v>9589.078369999999</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>14430.74797</v>
+        <v>9198.899160000001</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>3362.70348</v>
+        <v>3194.72603</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>3059.90718</v>
+        <v>3012.68172</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>7313.40687</v>
+        <v>6671.86437</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>8728.793369999999</v>
+        <v>8500.558060000001</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>40637.00731</v>
+        <v>32878.365</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>15230.20496</v>
+        <v>10717.29051</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>13110.1557</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>11375.60316</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>8599.944</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
-        <v>12029.7042</v>
+        <v>11864.26851</v>
       </c>
       <c r="D18" s="48" t="n">
-        <v>14031.64386</v>
+        <v>13461.84321</v>
       </c>
       <c r="E18" s="48" t="n">
-        <v>39286.34669</v>
+        <v>38742.85954</v>
       </c>
       <c r="F18" s="48" t="n">
-        <v>21378.7967</v>
+        <v>21001.99045</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>26794.17779</v>
+        <v>26947.18723</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>41892.58818999999</v>
+        <v>41987.78718</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>34139.89198</v>
+        <v>36946.55858</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>51431.48731</v>
+        <v>53055.82065</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>65830.31457999999</v>
+        <v>61471.72579</v>
       </c>
       <c r="L18" s="48" t="n">
         <v>68765.29772</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>169847.60356</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>166065.98153</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>116390.186</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>1093253.66735</v>
+        <v>1087051.99542</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>1232511.47019</v>
+        <v>1220388.46053</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>1312367.45559</v>
+        <v>1324124.86546</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>1485552.83971</v>
+        <v>1508585.30017</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>1469231.01031</v>
+        <v>1450498.58435</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>1654449.99747</v>
+        <v>1700635.16882</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>1837494.88788</v>
+        <v>1901993.6181</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>1998323.41753</v>
+        <v>1976150.66524</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>2405942.79308</v>
+        <v>2293646.20165</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>2271062.92381</v>
+        <v>2249619.4116</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>3046084.19801</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>2973300.09021</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>2992505.316</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>446101.64186</v>
+        <v>430183.76013</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>537009.8611699999</v>
+        <v>521425.35737</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>677738.51971</v>
+        <v>675344.9889</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>839653.65662</v>
+        <v>834238.07699</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>948249.32814</v>
+        <v>911145.1889299999</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>1069766.97555</v>
+        <v>1094700.45464</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>1252258.82006</v>
+        <v>1264669.6583</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>1448615.84869</v>
+        <v>1421020.20302</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>1618130.09469</v>
+        <v>1537807.17047</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>1755890.0058</v>
+        <v>1729438.31652</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>2235924.40877</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>2178137.58538</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>2382352.291</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
-        <v>4307.23816</v>
+        <v>4240.29604</v>
       </c>
       <c r="D21" s="48" t="n">
-        <v>4797.93527</v>
+        <v>4737.463049999999</v>
       </c>
       <c r="E21" s="48" t="n">
-        <v>6358.91798</v>
+        <v>6310.79328</v>
       </c>
       <c r="F21" s="48" t="n">
-        <v>6611.78926</v>
+        <v>6584.94515</v>
       </c>
       <c r="G21" s="48" t="n">
-        <v>7366.954320000001</v>
+        <v>7344.19208</v>
       </c>
       <c r="H21" s="48" t="n">
-        <v>8135.043549999999</v>
+        <v>8133.994860000001</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>10282.96662</v>
+        <v>10244.47062</v>
       </c>
       <c r="J21" s="48" t="n">
-        <v>9202.77844</v>
+        <v>9826.17121</v>
       </c>
       <c r="K21" s="48" t="n">
         <v>9666.225269999999</v>
       </c>
       <c r="L21" s="48" t="n">
-        <v>12340.38586</v>
+        <v>4371.87677</v>
       </c>
       <c r="M21" s="48" t="n">
         <v>17239.9999</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21" s="48" t="n">
+        <v>19911.301</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>220025.1449</v>
+        <v>215359.32056</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>278304.56684</v>
+        <v>272124.7114</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>360785.58204</v>
+        <v>365629.83667</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>464840.23959</v>
+        <v>467891.20158</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>532512.07363</v>
+        <v>506318.94824</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>604938.87356</v>
+        <v>631479.63132</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>709036.68036</v>
+        <v>737928.27153</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>871534.1969199999</v>
+        <v>837919.4083</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>992048.92785</v>
+        <v>948935.02961</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>1082191.28594</v>
+        <v>1103013.63774</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>1387582.25139</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>1365947.37077</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>1509724.661</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>221769.2588</v>
+        <v>210584.14353</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>253907.35906</v>
+        <v>244563.18292</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>310594.01969</v>
+        <v>303404.35895</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>368201.62777</v>
+        <v>359761.93026</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>408370.30019</v>
+        <v>397482.04861</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>456693.05844</v>
+        <v>455086.82846</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>532939.17308</v>
+        <v>516496.91615</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>567878.8733300001</v>
+        <v>573274.6235099999</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>616414.94157</v>
+        <v>579205.91559</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>661358.334</v>
+        <v>622052.80201</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>831102.1574800001</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>794950.2147100001</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>852716.329</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>647152.02549</v>
+        <v>656868.23529</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>695501.60902</v>
+        <v>698963.1031599999</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>634628.93588</v>
+        <v>648779.8765599999</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>645899.1830900001</v>
+        <v>674347.22318</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>520981.68217</v>
+        <v>539353.39542</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>584683.02192</v>
+        <v>605934.7141799999</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>585236.06782</v>
+        <v>637323.9598</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>549707.5688400001</v>
+        <v>555130.46222</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>787812.69839</v>
+        <v>755839.0311799999</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>515172.91801</v>
+        <v>520181.09508</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>810159.78924</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>795162.50483</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>610153.025</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>288974.72967</v>
+        <v>281097.86905</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>284762.19101</v>
+        <v>274855.6114</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>374004.32411</v>
+        <v>370430.48399</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>441664.15919</v>
+        <v>437844.0023399999</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>635679.5261799999</v>
+        <v>630037.4967200001</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>592870.4821200001</v>
+        <v>606047.76757</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>778752.5771900001</v>
+        <v>767421.33791</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>923352.10273</v>
+        <v>956426.4541900001</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>1492311.39936</v>
+        <v>1474384.70366</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>4346783.55234</v>
+        <v>4166177.01192</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>2327636.1044</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>2283288.83512</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>3211345.039</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
-        <v>21398.90397</v>
+        <v>21254.18126</v>
       </c>
       <c r="D26" s="48" t="n">
-        <v>21995.38151</v>
+        <v>21785.53437</v>
       </c>
       <c r="E26" s="48" t="n">
-        <v>29725.09592</v>
+        <v>29727.06443</v>
       </c>
       <c r="F26" s="48" t="n">
-        <v>26047.69281</v>
+        <v>25502.09133</v>
       </c>
       <c r="G26" s="48" t="n">
-        <v>57508.19294</v>
+        <v>56875.07947</v>
       </c>
       <c r="H26" s="48" t="n">
-        <v>45535.43486</v>
+        <v>44948.52692</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>55409.46773</v>
+        <v>45095.29739</v>
       </c>
       <c r="J26" s="48" t="n">
-        <v>23193.8956</v>
+        <v>22888.46498</v>
       </c>
       <c r="K26" s="48" t="n">
-        <v>161942.99938</v>
+        <v>161912.69458</v>
       </c>
       <c r="L26" s="48" t="n">
-        <v>240368.3022</v>
+        <v>239994.36715</v>
       </c>
       <c r="M26" s="48" t="n">
-        <v>135050.79556</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>124815.02456</v>
+      </c>
+      <c r="N26" s="48" t="n">
+        <v>114128.181</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>53108.89226</v>
@@ -1826,10 +1842,10 @@
         <v>74685.41070000001</v>
       </c>
       <c r="I27" s="48" t="n">
-        <v>64496.37556</v>
+        <v>66769.14256000001</v>
       </c>
       <c r="J27" s="48" t="n">
-        <v>75155.05958</v>
+        <v>70250.38665</v>
       </c>
       <c r="K27" s="48" t="n">
         <v>163916.50588</v>
@@ -1840,50 +1856,60 @@
       <c r="M27" s="48" t="n">
         <v>536319.17412</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>711766.491</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>53706.41624</v>
+        <v>52514.58247</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>77079.51915000001</v>
+        <v>76052.29984000001</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>63993.33361</v>
+        <v>62038.74082</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>64088.65251</v>
+        <v>62889.54459</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>56305.7191</v>
+        <v>54385.11990999999</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>93949.14661</v>
+        <v>92583.54937000001</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>105655.90623</v>
+        <v>104186.4862</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>111392.01971</v>
+        <v>110589.02091</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>174075.05037</v>
+        <v>168313.85279</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>324413.47993</v>
+        <v>308623.04561</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>220430.62132</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>207228.20669</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>318474.596</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>0</v>
@@ -1892,7 +1918,7 @@
         <v>0</v>
       </c>
       <c r="E29" s="48" t="n">
-        <v>1.02073</v>
+        <v>0</v>
       </c>
       <c r="F29" s="48" t="n">
         <v>0</v>
@@ -1916,133 +1942,153 @@
         <v>0</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>219.65168</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
-        <v>1482.59652</v>
+        <v>1482.05129</v>
       </c>
       <c r="D30" s="48" t="n">
-        <v>1232.16594</v>
+        <v>1142.42268</v>
       </c>
       <c r="E30" s="48" t="n">
-        <v>3196.36263</v>
+        <v>3193.87963</v>
       </c>
       <c r="F30" s="48" t="n">
-        <v>1625.35889</v>
+        <v>1788.94964</v>
       </c>
       <c r="G30" s="48" t="n">
         <v>3015.59872</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>4286.65284</v>
+        <v>4289.61991</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>2302.58429</v>
+        <v>2299.43924</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>2106.85515</v>
+        <v>3281.46629</v>
       </c>
       <c r="K30" s="48" t="n">
-        <v>15128.97278</v>
+        <v>15070.49208</v>
       </c>
       <c r="L30" s="48" t="n">
         <v>3297.78663</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>7862.143690000001</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>7635.16225</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>7236.047</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>1749.84821</v>
+        <v>1747.93503</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>332.14633</v>
+        <v>329.14633</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>233.11659</v>
+        <v>22.25453</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>78.87428999999999</v>
+        <v>317.20691</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>2628.66518</v>
+        <v>2386.56532</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>70.03435</v>
+        <v>8122.14996</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>26.20851</v>
+        <v>0.01896</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>1698.55972</v>
+        <v>1697.94034</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>5766.64429</v>
+        <v>5269.68905</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>146742.1929</v>
+        <v>8842.772720000001</v>
       </c>
       <c r="M31" s="48" t="n">
         <v>2521.19191</v>
       </c>
-    </row>
-    <row r="32" spans="1:13">
+      <c r="N31" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>93657.53548000001</v>
+        <v>88446.03293</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>85967.86818</v>
+        <v>78664.28717</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>166780.12281</v>
+        <v>163842.07053</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>228623.19964</v>
+        <v>224811.84476</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>269398.1017</v>
+        <v>267558.18237</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>210572.58206</v>
+        <v>214973.46746</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>380772.90765</v>
+        <v>378241.73232</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>519073.39175</v>
+        <v>510938.7482</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>689458.67918</v>
+        <v>681515.94839</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>2968931.23868</v>
+        <v>2941050.69452</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>1140268.00386</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>1127579.07458</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>1728176.753</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
-        <v>441.8408</v>
+        <v>415.922</v>
       </c>
       <c r="D33" s="48" t="n">
         <v>213.097</v>
@@ -2051,10 +2097,10 @@
         <v>232.012</v>
       </c>
       <c r="F33" s="48" t="n">
-        <v>505.14328</v>
+        <v>376.814</v>
       </c>
       <c r="G33" s="48" t="n">
-        <v>395.875</v>
+        <v>702.9665</v>
       </c>
       <c r="H33" s="48" t="n">
         <v>336.81744</v>
@@ -2072,13 +2118,18 @@
         <v>286.86922</v>
       </c>
       <c r="M33" s="48" t="n">
-        <v>528.4625699999999</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13">
+        <v>498.45877</v>
+      </c>
+      <c r="N33" s="48" t="n">
+        <v>1971.719</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>0</v>
@@ -2113,101 +2164,116 @@
       <c r="M34" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>63428.69619</v>
+        <v>62128.27181000001</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>82201.6565</v>
+        <v>80928.46760999999</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>97731.43402</v>
+        <v>99262.63625</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>108554.68407</v>
+        <v>110016.99741</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>146446.95771</v>
+        <v>145133.5686</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>163434.40326</v>
+        <v>166108.22581</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>169656.40428</v>
+        <v>170396.4983</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>189408.43203</v>
+        <v>235456.53763</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>278839.34811</v>
+        <v>275202.32152</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>265284.37824</v>
+        <v>266622.17153</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>284436.05969</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>276692.54224</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>329591.252</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>162743.60158</v>
+        <v>156913.80677</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>114918.39024</v>
+        <v>107325.92562</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>147672.75898</v>
+        <v>140014.74021</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>176511.24892</v>
+        <v>175563.54416</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>144205.31325</v>
+        <v>134752.89922</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>127647.62723</v>
+        <v>126497.99587</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>166409.67281</v>
+        <v>141906.88224</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>299084.80106</v>
+        <v>289832.69486</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>499360.52971</v>
+        <v>484150.31135</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>996646.86125</v>
+        <v>984534.2871900001</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>617714.90847</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>600710.1292000001</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>1001132.835</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
-        <v>46.22712</v>
+        <v>5</v>
       </c>
       <c r="D37" s="48" t="n">
-        <v>82.14407000000001</v>
+        <v>63.5</v>
       </c>
       <c r="E37" s="48" t="n">
-        <v>6.97498</v>
+        <v>3.78983</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>41.26499</v>
+        <v>15.9185</v>
       </c>
       <c r="G37" s="48" t="n">
         <v>0.33898</v>
@@ -2222,7 +2288,7 @@
         <v>0</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>21.18791</v>
+        <v>0.42373</v>
       </c>
       <c r="L37" s="48" t="n">
         <v>0</v>
@@ -2230,50 +2296,60 @@
       <c r="M37" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:13">
+      <c r="N37" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
         <v>3956.91846</v>
       </c>
       <c r="D38" s="48" t="n">
-        <v>9083.085419999999</v>
+        <v>8457.85698</v>
       </c>
       <c r="E38" s="48" t="n">
-        <v>6450.81247</v>
+        <v>6510.06754</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>13654.87794</v>
+        <v>13662.23855</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>7001.23033</v>
+        <v>6586.722009999999</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>9341.440210000001</v>
+        <v>9226.256890000001</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>12306.13249</v>
+        <v>12031.49948</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>12894.8406</v>
+        <v>17315.91862</v>
       </c>
       <c r="K38" s="48" t="n">
-        <v>14248.95958</v>
+        <v>14174.59899</v>
       </c>
       <c r="L38" s="48" t="n">
         <v>27870.1122</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>34999.74877000001</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>34991.90777000001</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>46916.904</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>0</v>
@@ -2288,7 +2364,7 @@
         <v>0</v>
       </c>
       <c r="G39" s="48" t="n">
-        <v>148.633</v>
+        <v>0</v>
       </c>
       <c r="H39" s="48" t="n">
         <v>0</v>
@@ -2306,52 +2382,62 @@
         <v>371.11403</v>
       </c>
       <c r="M39" s="48" t="n">
-        <v>1903.57578</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
+        <v>1733.99345</v>
+      </c>
+      <c r="N39" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>111201.19468</v>
+        <v>105630.2391</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>67593.13704999999</v>
+        <v>60807.1162</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>95059.80345000001</v>
+        <v>88728.65572</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>109750.30538</v>
+        <v>108914.61799</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>105950.44931</v>
+        <v>97501.23248999999</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>76463.52032</v>
+        <v>75004.55695</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>122824.83025</v>
+        <v>100365.15562</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>241514.47781</v>
+        <v>229598.41364</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>432162.24747</v>
+        <v>418926.43689</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>904664.0629700001</v>
+        <v>892629.4752699999</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>498793.57224</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>488341.21074</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>880819.708</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>213.097</v>
@@ -2360,13 +2446,13 @@
         <v>232.30861</v>
       </c>
       <c r="E41" s="48" t="n">
-        <v>505.14328</v>
+        <v>376.814</v>
       </c>
       <c r="F41" s="48" t="n">
         <v>395.875</v>
       </c>
       <c r="G41" s="48" t="n">
-        <v>353.3142</v>
+        <v>643.9089399999999</v>
       </c>
       <c r="H41" s="48" t="n">
         <v>361.8104</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>436.76648</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>2485.273</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>0</v>
@@ -2411,7 +2502,7 @@
         <v>0</v>
       </c>
       <c r="I42" s="48" t="n">
-        <v>690.68022</v>
+        <v>0</v>
       </c>
       <c r="J42" s="48" t="n">
         <v>0</v>
@@ -2420,598 +2511,676 @@
         <v>0</v>
       </c>
       <c r="L42" s="48" t="n">
-        <v>0.02052</v>
+        <v>0</v>
       </c>
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>47326.16432</v>
+        <v>47108.55221</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>37927.71509000001</v>
+        <v>37765.14383</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>45650.0248</v>
+        <v>44395.41312</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>52668.92561</v>
+        <v>52574.89412</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>30751.34743</v>
+        <v>30020.6968</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>41480.8563</v>
+        <v>41905.37163</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>30033.55693</v>
+        <v>28955.75422</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>42505.57177</v>
+        <v>40748.45172</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>50953.72115999999</v>
+        <v>49074.43815</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>63243.09276</v>
+        <v>63165.12692</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>81581.2452</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>75206.25076000001</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>70910.95</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>110798.01886</v>
+        <v>102776.3369</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>139524.57252</v>
+        <v>132009.73549</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>371419.26616</v>
+        <v>369287.60555</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>190396.27889</v>
+        <v>185279.64817</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>810415.20753</v>
+        <v>791953.33403</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>596233.3118500001</v>
+        <v>579295.51138</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>1181372.54518</v>
+        <v>1165249.95896</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>1195079.44254</v>
+        <v>1164122.4083</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>1037594.47304</v>
+        <v>1006041.26048</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>3710940.96183</v>
+        <v>3686123.8654</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>1601040.95462</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>1583088.94512</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>2328367.54</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>107318.98958</v>
+        <v>99785.67056</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>113958.80516</v>
+        <v>107315.8092</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>304649.41556</v>
+        <v>302533.79949</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>160883.51983</v>
+        <v>155911.85479</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>760660.4379500001</v>
+        <v>742198.5644500001</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>463351.93735</v>
+        <v>448448.44513</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>851246.75019</v>
+        <v>833286.45672</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>816590.15889</v>
+        <v>786368.97985</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>856024.58586</v>
+        <v>826398.00058</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>2764556.63789</v>
+        <v>2739457.46214</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>1263421.63951</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>1246596.93392</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>1466362.356</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
-        <v>3479.02928</v>
+        <v>2990.66634</v>
       </c>
       <c r="D46" s="48" t="n">
-        <v>25565.76736</v>
+        <v>24693.92629</v>
       </c>
       <c r="E46" s="48" t="n">
-        <v>66769.85060000001</v>
+        <v>66753.80606</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>29512.75906</v>
+        <v>29367.79338</v>
       </c>
       <c r="G46" s="48" t="n">
         <v>49754.76958</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>132881.3745</v>
+        <v>130847.06625</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>330125.79499</v>
+        <v>331963.50224</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>378489.28365</v>
+        <v>377753.42845</v>
       </c>
       <c r="K46" s="48" t="n">
-        <v>181569.88718</v>
+        <v>179643.2599</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>946384.32394</v>
+        <v>946666.4032599999</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>337619.31511</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>336492.0112</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>862005.184</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>662585.13472</v>
+        <v>678275.9606699999</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>725820.83727</v>
+        <v>734483.05345</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>489541.23485</v>
+        <v>509908.01479</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>720655.81447</v>
+        <v>751348.0331900001</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>202040.68757</v>
+        <v>242684.65889</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>453672.56496</v>
+        <v>506188.9745</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>16206.42702</v>
+        <v>97588.45651</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>-21104.57203</v>
+        <v>57601.81325</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>743169.095</v>
+        <v>740032.16301</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>154368.64727</v>
+        <v>15699.95441</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>919040.0305499999</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>894652.26563</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>491997.689</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>20528.94363</v>
+        <v>19728.19108</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>62124.26631</v>
+        <v>18922.42313</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>172077.27399</v>
+        <v>150643.31959</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>72376.87220999999</v>
+        <v>31864.09337</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>35768.46090999999</v>
+        <v>34260.68453</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>66263.09746999999</v>
+        <v>67200.74449</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>78022.27312</v>
+        <v>73360.49743</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>51226.38122</v>
+        <v>42700.4429</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>52904.92832</v>
+        <v>46011.94749</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>80449.86292</v>
+        <v>77196.44564000001</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>481436.71302</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>454196.94813</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>423588.271</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
-        <v>1809.00098</v>
+        <v>1804.8267</v>
       </c>
       <c r="D49" s="48" t="n">
-        <v>1446.40534</v>
+        <v>1063.91865</v>
       </c>
       <c r="E49" s="48" t="n">
-        <v>2954.92008</v>
+        <v>2703.74772</v>
       </c>
       <c r="F49" s="48" t="n">
-        <v>40721.51009</v>
+        <v>2025.67941</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>2677.00413</v>
+        <v>2701.22013</v>
       </c>
       <c r="H49" s="48" t="n">
         <v>718.0964300000001</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>722.50236</v>
+        <v>666.3925300000001</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>718.50362</v>
+        <v>713.64577</v>
       </c>
       <c r="K49" s="48" t="n">
-        <v>851.46309</v>
+        <v>278.61836</v>
       </c>
       <c r="L49" s="48" t="n">
         <v>549.4146999999999</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>1351.8982</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>1310.92177</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>269588.829</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>18719.94265</v>
+        <v>17923.36438</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>60677.86097</v>
+        <v>17858.50448</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>169122.35391</v>
+        <v>147939.57187</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>31655.36212</v>
+        <v>29838.41396</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>33091.45678</v>
+        <v>31559.4644</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>65545.00104</v>
+        <v>66482.64806000001</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>77299.77076</v>
+        <v>72694.10490000001</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>50507.8776</v>
+        <v>41986.79713000001</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>52053.46522999999</v>
+        <v>45733.32913000001</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>79900.44822000001</v>
+        <v>76647.03094</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>480084.81482</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>452886.02636</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>153999.442</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>46733.62711</v>
+        <v>38149.55779</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>150657.90453</v>
+        <v>54895.88245</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>403675.88645</v>
+        <v>374562.62082</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>125512.2465</v>
+        <v>113777.5513</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>111336.92141</v>
+        <v>89234.14526</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>89236.17643000001</v>
+        <v>76084.66793000001</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>93260.06368000001</v>
+        <v>71519.98922</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>138104.83415</v>
+        <v>116327.82669</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>106358.62397</v>
+        <v>91137.21784</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>116263.14266</v>
+        <v>83072.95586</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>237421.1143</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>191313.36384</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>158626.02</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
-        <v>21699.33879</v>
+        <v>21019.21321</v>
       </c>
       <c r="D52" s="48" t="n">
-        <v>26611.48435</v>
+        <v>25083.93265</v>
       </c>
       <c r="E52" s="48" t="n">
-        <v>39058.58481</v>
+        <v>39192.57967</v>
       </c>
       <c r="F52" s="48" t="n">
-        <v>36094.06311</v>
+        <v>36081.44914</v>
       </c>
       <c r="G52" s="48" t="n">
-        <v>43786.66117</v>
+        <v>41380.73663</v>
       </c>
       <c r="H52" s="48" t="n">
-        <v>47102.50634000001</v>
+        <v>45206.95865</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>39502.39595000001</v>
+        <v>37489.9179</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>32715.61701</v>
+        <v>42030.78592</v>
       </c>
       <c r="K52" s="48" t="n">
-        <v>54492.50856</v>
+        <v>51234.49653</v>
       </c>
       <c r="L52" s="48" t="n">
-        <v>47736.64328</v>
+        <v>44640.33365</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>56437.88176</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>52621.3524</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>47813.567</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>2069.75647</v>
+        <v>1845.34789</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>1440.73315</v>
+        <v>1214.93212</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>16309.87026</v>
+        <v>4396.392559999999</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>10418.4781</v>
+        <v>2997.22895</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>1577.74088</v>
+        <v>1547.05399</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>4335.47629</v>
+        <v>4899.12246</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>2976.73456</v>
+        <v>2968.5141</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>3242.91365</v>
+        <v>2851.70056</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>3187.59834</v>
+        <v>2273.42956</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>3222.76218</v>
+        <v>3178.2063</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>5508.62467</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>5035.56919</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>4613.361</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>22964.53185</v>
+        <v>15284.99669</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>122605.68703</v>
+        <v>28597.01768</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>348307.43138</v>
+        <v>330973.64859</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>78999.70529000001</v>
+        <v>74698.87320999999</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>65972.51936000001</v>
+        <v>46306.35464</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>37798.19379999999</v>
+        <v>25978.58682</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>50780.93317</v>
+        <v>31061.55722</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>102146.30349</v>
+        <v>71445.34020999999</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>48678.51707</v>
+        <v>37629.29175</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>65303.7372</v>
+        <v>35254.41591</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>175474.60787</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>133656.44225</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>106199.092</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>636380.45124</v>
+        <v>659854.5939600001</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>637287.1990499999</v>
+        <v>698509.59413</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>257942.62239</v>
+        <v>285988.71356</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>667520.4401799999</v>
+        <v>669434.57526</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>126472.22707</v>
+        <v>187711.19816</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>430699.486</v>
+        <v>497305.05106</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>968.6364599999999</v>
+        <v>99428.96472</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>-107983.02496</v>
+        <v>-16025.57054</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>689715.3993500001</v>
+        <v>694906.89266</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>118555.36753</v>
+        <v>9823.44419</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>1163055.62927</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>1157535.84992</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>756959.9399999999</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>130804.3746</v>
+        <v>130657.77569</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>134387.43336</v>
+        <v>134310.25662</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>106852.7212</v>
+        <v>105331.1985</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>144473.27686</v>
+        <v>142622.08046</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>41900.5096</v>
+        <v>42313.81755</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>65566.81913</v>
+        <v>64685.68023</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>35658.0652</v>
+        <v>45876.58933</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>58157.78096</v>
+        <v>68169.17783</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>80005.02056999999</v>
+        <v>76149.4069</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>108651.852</v>
+        <v>101580.9722</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>81126.29856</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>74523.63205</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>113568.861</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>505576.07664</v>
+        <v>529196.8182699999</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>502899.76569</v>
+        <v>564199.33751</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>151089.90119</v>
+        <v>180657.51506</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>523047.16332</v>
+        <v>526812.4948</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>84571.71747</v>
+        <v>145397.38061</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>365132.66687</v>
+        <v>432619.37083</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>-34689.42874</v>
+        <v>53552.37539</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>-166140.80592</v>
+        <v>-84194.74837</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>609710.37878</v>
+        <v>618757.48576</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>9903.515529999999</v>
+        <v>-91757.52801000001</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>1081929.33071</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>1083012.21787</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>643391.079</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="D59" s="35" t="n">
+        <v>23</v>
+      </c>
+      <c r="E59" s="35" t="n">
+        <v>26</v>
+      </c>
+      <c r="F59" s="35" t="n">
+        <v>26</v>
+      </c>
+      <c r="G59" s="35" t="n">
+        <v>21</v>
+      </c>
+      <c r="H59" s="35" t="n">
+        <v>25</v>
+      </c>
+      <c r="I59" s="35" t="n">
+        <v>26</v>
+      </c>
+      <c r="J59" s="35" t="n">
+        <v>27</v>
+      </c>
+      <c r="K59" s="35" t="n">
         <v>32</v>
       </c>
-      <c r="E59" s="35" t="n">
-        <v>38</v>
-      </c>
-      <c r="F59" s="35" t="n">
-        <v>39</v>
-      </c>
-      <c r="G59" s="35" t="n">
-        <v>30</v>
-      </c>
-      <c r="H59" s="35" t="n">
-        <v>33</v>
-      </c>
-      <c r="I59" s="35" t="n">
-        <v>36</v>
-      </c>
-      <c r="J59" s="35" t="n">
-        <v>47</v>
-      </c>
-      <c r="K59" s="35" t="n">
-        <v>55</v>
-      </c>
       <c r="L59" s="35" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>19</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>